--- a/Code/Results/Cases/Case_5_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_195/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010502386569162</v>
+        <v>1.041937413968151</v>
       </c>
       <c r="D2">
-        <v>1.031179369823476</v>
+        <v>1.048921179698696</v>
       </c>
       <c r="E2">
-        <v>1.024894063693578</v>
+        <v>1.04963823194174</v>
       </c>
       <c r="F2">
-        <v>1.034340882093196</v>
+        <v>1.059264189852732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052342506888784</v>
+        <v>1.038913383302503</v>
       </c>
       <c r="J2">
-        <v>1.032373447300555</v>
+        <v>1.047015931704176</v>
       </c>
       <c r="K2">
-        <v>1.042220766199588</v>
+        <v>1.051679677902946</v>
       </c>
       <c r="L2">
-        <v>1.036017145609807</v>
+        <v>1.05239473330045</v>
       </c>
       <c r="M2">
-        <v>1.045341659666027</v>
+        <v>1.061994168364726</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015370301686772</v>
+        <v>1.042962850435983</v>
       </c>
       <c r="D3">
-        <v>1.034982642952753</v>
+        <v>1.049729714893526</v>
       </c>
       <c r="E3">
-        <v>1.028939612885067</v>
+        <v>1.050538416031361</v>
       </c>
       <c r="F3">
-        <v>1.038675839358142</v>
+        <v>1.060224051541916</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053784121569648</v>
+        <v>1.039121596199218</v>
       </c>
       <c r="J3">
-        <v>1.035450549646771</v>
+        <v>1.047687223520756</v>
       </c>
       <c r="K3">
-        <v>1.045186656506043</v>
+        <v>1.0523003648002</v>
       </c>
       <c r="L3">
-        <v>1.039215126588845</v>
+        <v>1.053106976685382</v>
       </c>
       <c r="M3">
-        <v>1.048836662170574</v>
+        <v>1.062767856678568</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01845277152931</v>
+        <v>1.043626590776393</v>
       </c>
       <c r="D4">
-        <v>1.03739097526426</v>
+        <v>1.050252670218264</v>
       </c>
       <c r="E4">
-        <v>1.031506911786719</v>
+        <v>1.051121406435495</v>
       </c>
       <c r="F4">
-        <v>1.041425377517806</v>
+        <v>1.060845543388529</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054681886433073</v>
+        <v>1.039254491063155</v>
       </c>
       <c r="J4">
-        <v>1.037395948658913</v>
+        <v>1.048121215516117</v>
       </c>
       <c r="K4">
-        <v>1.047058133966814</v>
+        <v>1.052701117784367</v>
       </c>
       <c r="L4">
-        <v>1.041239384686075</v>
+        <v>1.053567722648926</v>
       </c>
       <c r="M4">
-        <v>1.051048277294296</v>
+        <v>1.063268258465172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019733109469619</v>
+        <v>1.043905678106922</v>
       </c>
       <c r="D5">
-        <v>1.038391245326511</v>
+        <v>1.050472466664375</v>
       </c>
       <c r="E5">
-        <v>1.032574556129567</v>
+        <v>1.051366617006588</v>
       </c>
       <c r="F5">
-        <v>1.042568469841883</v>
+        <v>1.061106912647685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055051105152384</v>
+        <v>1.039309920723711</v>
       </c>
       <c r="J5">
-        <v>1.038203211474948</v>
+        <v>1.048303574409506</v>
       </c>
       <c r="K5">
-        <v>1.047833837826687</v>
+        <v>1.052869384522391</v>
       </c>
       <c r="L5">
-        <v>1.042079954883685</v>
+        <v>1.053761390012927</v>
       </c>
       <c r="M5">
-        <v>1.051966487602664</v>
+        <v>1.063478572337808</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019947189938445</v>
+        <v>1.043952541069545</v>
       </c>
       <c r="D6">
-        <v>1.038558491580759</v>
+        <v>1.050509368258875</v>
       </c>
       <c r="E6">
-        <v>1.032753147291882</v>
+        <v>1.051407796031906</v>
       </c>
       <c r="F6">
-        <v>1.042759661782285</v>
+        <v>1.061150803184775</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055112623006688</v>
+        <v>1.039319201828029</v>
       </c>
       <c r="J6">
-        <v>1.038338143862349</v>
+        <v>1.048334187893977</v>
       </c>
       <c r="K6">
-        <v>1.047963442671925</v>
+        <v>1.052897624920074</v>
       </c>
       <c r="L6">
-        <v>1.042220488854932</v>
+        <v>1.053793905820107</v>
       </c>
       <c r="M6">
-        <v>1.052119992657299</v>
+        <v>1.06351388170975</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018469939724735</v>
+        <v>1.043630319755534</v>
       </c>
       <c r="D7">
-        <v>1.037404388304385</v>
+        <v>1.050255607362556</v>
       </c>
       <c r="E7">
-        <v>1.03152122292097</v>
+        <v>1.051124682475314</v>
       </c>
       <c r="F7">
-        <v>1.041440701321917</v>
+        <v>1.060849035448919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054686851932753</v>
+        <v>1.039255233444016</v>
       </c>
       <c r="J7">
-        <v>1.037406776469995</v>
+        <v>1.048123652564347</v>
       </c>
       <c r="K7">
-        <v>1.047068541997597</v>
+        <v>1.05270336699825</v>
       </c>
       <c r="L7">
-        <v>1.041250656941198</v>
+        <v>1.053570310561504</v>
       </c>
       <c r="M7">
-        <v>1.051060591357611</v>
+        <v>1.063271068906791</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012161849429121</v>
+        <v>1.042283920376825</v>
       </c>
       <c r="D8">
-        <v>1.032475856451518</v>
+        <v>1.049194473078919</v>
       </c>
       <c r="E8">
-        <v>1.026271985004089</v>
+        <v>1.049942346969431</v>
       </c>
       <c r="F8">
-        <v>1.035817674714571</v>
+        <v>1.059588496777506</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052837084303996</v>
+        <v>1.038984128982471</v>
       </c>
       <c r="J8">
-        <v>1.03342304959357</v>
+        <v>1.047242875920609</v>
       </c>
       <c r="K8">
-        <v>1.043233181571883</v>
+        <v>1.051889622195848</v>
       </c>
       <c r="L8">
-        <v>1.03710746704418</v>
+        <v>1.052635464326353</v>
       </c>
       <c r="M8">
-        <v>1.046533382559853</v>
+        <v>1.062255686288692</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00050119557311</v>
+        <v>1.039913053056871</v>
       </c>
       <c r="D9">
-        <v>1.023368468548574</v>
+        <v>1.047322972569441</v>
       </c>
       <c r="E9">
-        <v>1.016615431360852</v>
+        <v>1.047862876926247</v>
       </c>
       <c r="F9">
-        <v>1.025462134264713</v>
+        <v>1.057370351588349</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04929992144234</v>
+        <v>1.038492395725084</v>
       </c>
       <c r="J9">
-        <v>1.026036267738204</v>
+        <v>1.045687964197981</v>
       </c>
       <c r="K9">
-        <v>1.036093453995723</v>
+        <v>1.050449050446938</v>
       </c>
       <c r="L9">
-        <v>1.029444566315259</v>
+        <v>1.050987235967661</v>
       </c>
       <c r="M9">
-        <v>1.038155185029823</v>
+        <v>1.060464757017261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9923178339066132</v>
+        <v>1.038333613503127</v>
       </c>
       <c r="D10">
-        <v>1.016983510354533</v>
+        <v>1.046074259278775</v>
       </c>
       <c r="E10">
-        <v>1.009873804964404</v>
+        <v>1.046479277934817</v>
       </c>
       <c r="F10">
-        <v>1.018224678422991</v>
+        <v>1.055893718665013</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046741425889664</v>
+        <v>1.038155184264178</v>
       </c>
       <c r="J10">
-        <v>1.020839596298247</v>
+        <v>1.044649464457852</v>
       </c>
       <c r="K10">
-        <v>1.031052746650399</v>
+        <v>1.049484245685973</v>
       </c>
       <c r="L10">
-        <v>1.024067044273448</v>
+        <v>1.049887848409166</v>
       </c>
       <c r="M10">
-        <v>1.032272496627559</v>
+        <v>1.059269713294593</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9886666443680594</v>
+        <v>1.037649972640794</v>
       </c>
       <c r="D11">
-        <v>1.014137323054355</v>
+        <v>1.04553331665542</v>
       </c>
       <c r="E11">
-        <v>1.00687510590808</v>
+        <v>1.045880819022422</v>
       </c>
       <c r="F11">
-        <v>1.015003537016761</v>
+        <v>1.055254836878152</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045582685319371</v>
+        <v>1.038006947340259</v>
       </c>
       <c r="J11">
-        <v>1.018518624720079</v>
+        <v>1.044199341358543</v>
       </c>
       <c r="K11">
-        <v>1.028797465658754</v>
+        <v>1.049065434719821</v>
       </c>
       <c r="L11">
-        <v>1.021668522116789</v>
+        <v>1.049411675128484</v>
       </c>
       <c r="M11">
-        <v>1.029647948764541</v>
+        <v>1.058751997162736</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9872932638971901</v>
+        <v>1.037396078287037</v>
       </c>
       <c r="D12">
-        <v>1.01306722728146</v>
+        <v>1.045332351104643</v>
       </c>
       <c r="E12">
-        <v>1.00574862163523</v>
+        <v>1.045658622996086</v>
       </c>
       <c r="F12">
-        <v>1.013793202523414</v>
+        <v>1.055017605194287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045144319877806</v>
+        <v>1.037951552149934</v>
       </c>
       <c r="J12">
-        <v>1.017645304111701</v>
+        <v>1.044032079146789</v>
       </c>
       <c r="K12">
-        <v>1.027948289964817</v>
+        <v>1.048909713490599</v>
       </c>
       <c r="L12">
-        <v>1.020766509668291</v>
+        <v>1.049234784081913</v>
       </c>
       <c r="M12">
-        <v>1.028660833094315</v>
+        <v>1.058559656845395</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9875886520339865</v>
+        <v>1.037450537660762</v>
       </c>
       <c r="D13">
-        <v>1.013297361070655</v>
+        <v>1.045375460483694</v>
       </c>
       <c r="E13">
-        <v>1.00599083961226</v>
+        <v>1.045706280338424</v>
       </c>
       <c r="F13">
-        <v>1.014053463142339</v>
+        <v>1.05506848867729</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045238716106713</v>
+        <v>1.037963449685944</v>
       </c>
       <c r="J13">
-        <v>1.017833151257812</v>
+        <v>1.044067960457493</v>
       </c>
       <c r="K13">
-        <v>1.028130969142458</v>
+        <v>1.048943123279866</v>
       </c>
       <c r="L13">
-        <v>1.020960506155761</v>
+        <v>1.049272728665671</v>
       </c>
       <c r="M13">
-        <v>1.028873137313275</v>
+        <v>1.058600916181685</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9885534764253578</v>
+        <v>1.037628984830982</v>
       </c>
       <c r="D14">
-        <v>1.014049135630392</v>
+        <v>1.045516705496688</v>
       </c>
       <c r="E14">
-        <v>1.00678225223795</v>
+        <v>1.045862450220375</v>
       </c>
       <c r="F14">
-        <v>1.014903777628372</v>
+        <v>1.055235225648229</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04554661411042</v>
+        <v>1.03800237515512</v>
       </c>
       <c r="J14">
-        <v>1.018446667891579</v>
+        <v>1.044185516764441</v>
       </c>
       <c r="K14">
-        <v>1.028727509738083</v>
+        <v>1.049052565936719</v>
       </c>
       <c r="L14">
-        <v>1.021594191287867</v>
+        <v>1.04939705364519</v>
       </c>
       <c r="M14">
-        <v>1.029566606997596</v>
+        <v>1.058736099012873</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9891456313231033</v>
+        <v>1.037738937368544</v>
       </c>
       <c r="D15">
-        <v>1.014510599554204</v>
+        <v>1.045603726550512</v>
       </c>
       <c r="E15">
-        <v>1.00726817219981</v>
+        <v>1.04595868468373</v>
       </c>
       <c r="F15">
-        <v>1.015425824693744</v>
+        <v>1.05533796808786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045735256068237</v>
+        <v>1.03802631425663</v>
       </c>
       <c r="J15">
-        <v>1.018823172589252</v>
+        <v>1.044257938295536</v>
       </c>
       <c r="K15">
-        <v>1.029093521754331</v>
+        <v>1.049119976493422</v>
       </c>
       <c r="L15">
-        <v>1.021983137557574</v>
+        <v>1.049473651857536</v>
       </c>
       <c r="M15">
-        <v>1.02999223484653</v>
+        <v>1.058819384669622</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9925577994807629</v>
+        <v>1.038378990136134</v>
       </c>
       <c r="D16">
-        <v>1.017170631222878</v>
+        <v>1.046110154848391</v>
       </c>
       <c r="E16">
-        <v>1.010071085770811</v>
+        <v>1.046519009416635</v>
       </c>
       <c r="F16">
-        <v>1.018436553661817</v>
+        <v>1.0559361299618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04681722935028</v>
+        <v>1.038164975481625</v>
       </c>
       <c r="J16">
-        <v>1.020992092231734</v>
+        <v>1.044679328297454</v>
       </c>
       <c r="K16">
-        <v>1.031200845871076</v>
+        <v>1.049512018849941</v>
       </c>
       <c r="L16">
-        <v>1.024224702955244</v>
+        <v>1.049919447750462</v>
       </c>
       <c r="M16">
-        <v>1.032444997987547</v>
+        <v>1.059304067112072</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9946686492385269</v>
+        <v>1.038780549925383</v>
       </c>
       <c r="D17">
-        <v>1.018816941322106</v>
+        <v>1.046427759921836</v>
       </c>
       <c r="E17">
-        <v>1.011807518611401</v>
+        <v>1.046870660540454</v>
       </c>
       <c r="F17">
-        <v>1.020301227984307</v>
+        <v>1.05631147823753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047482084077595</v>
+        <v>1.038251359397769</v>
       </c>
       <c r="J17">
-        <v>1.022333256366121</v>
+        <v>1.044943536121918</v>
       </c>
       <c r="K17">
-        <v>1.032502893883444</v>
+        <v>1.049757657599731</v>
       </c>
       <c r="L17">
-        <v>1.025611638851131</v>
+        <v>1.050199049049074</v>
       </c>
       <c r="M17">
-        <v>1.033962426147977</v>
+        <v>1.059608028020906</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9958895468702055</v>
+        <v>1.03901479869363</v>
       </c>
       <c r="D18">
-        <v>1.019769393463992</v>
+        <v>1.04661299022295</v>
       </c>
       <c r="E18">
-        <v>1.012812725871209</v>
+        <v>1.047075835215555</v>
       </c>
       <c r="F18">
-        <v>1.021380493458488</v>
+        <v>1.056530461689556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047864994176901</v>
+        <v>1.038301531240401</v>
       </c>
       <c r="J18">
-        <v>1.023108746648014</v>
+        <v>1.045097601021328</v>
       </c>
       <c r="K18">
-        <v>1.033255389042545</v>
+        <v>1.049900833737051</v>
       </c>
       <c r="L18">
-        <v>1.02641390024317</v>
+        <v>1.050362123054215</v>
       </c>
       <c r="M18">
-        <v>1.034840102294061</v>
+        <v>1.059785298691234</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9963041185813329</v>
+        <v>1.039094675829281</v>
       </c>
       <c r="D19">
-        <v>1.02009284902873</v>
+        <v>1.046676144977944</v>
       </c>
       <c r="E19">
-        <v>1.013154202295179</v>
+        <v>1.047145805057792</v>
       </c>
       <c r="F19">
-        <v>1.02174709761282</v>
+        <v>1.056605137699445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047994736536612</v>
+        <v>1.03831860215655</v>
       </c>
       <c r="J19">
-        <v>1.023372034175327</v>
+        <v>1.045150125851532</v>
       </c>
       <c r="K19">
-        <v>1.033510804786919</v>
+        <v>1.049949635983421</v>
       </c>
       <c r="L19">
-        <v>1.02668632845488</v>
+        <v>1.050417724902246</v>
       </c>
       <c r="M19">
-        <v>1.035138127933455</v>
+        <v>1.059845739216901</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9944432498709497</v>
+        <v>1.038737463696626</v>
       </c>
       <c r="D20">
-        <v>1.018641120525533</v>
+        <v>1.046393686313297</v>
       </c>
       <c r="E20">
-        <v>1.011622009246042</v>
+        <v>1.046832925229721</v>
       </c>
       <c r="F20">
-        <v>1.020102036791182</v>
+        <v>1.056271201829547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047411259264033</v>
+        <v>1.038242113397695</v>
       </c>
       <c r="J20">
-        <v>1.022190068285486</v>
+        <v>1.04491519357219</v>
       </c>
       <c r="K20">
-        <v>1.032363920995086</v>
+        <v>1.049731313306717</v>
       </c>
       <c r="L20">
-        <v>1.025463532322525</v>
+        <v>1.05016905178508</v>
       </c>
       <c r="M20">
-        <v>1.033800391722009</v>
+        <v>1.059575418429773</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9882698418057332</v>
+        <v>1.037576435472864</v>
       </c>
       <c r="D21">
-        <v>1.013828118247969</v>
+        <v>1.04547511333003</v>
       </c>
       <c r="E21">
-        <v>1.006549555463449</v>
+        <v>1.045816459363561</v>
       </c>
       <c r="F21">
-        <v>1.014653770064754</v>
+        <v>1.055186123621198</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045456168108635</v>
+        <v>1.037990921774387</v>
       </c>
       <c r="J21">
-        <v>1.018266316775924</v>
+        <v>1.044150901192154</v>
       </c>
       <c r="K21">
-        <v>1.028552164514248</v>
+        <v>1.049020342108194</v>
       </c>
       <c r="L21">
-        <v>1.021407897907324</v>
+        <v>1.049360443559376</v>
       </c>
       <c r="M21">
-        <v>1.029362740667388</v>
+        <v>1.058696292067761</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9842885155001377</v>
+        <v>1.036846684221822</v>
       </c>
       <c r="D22">
-        <v>1.010727024041824</v>
+        <v>1.04489736581571</v>
       </c>
       <c r="E22">
-        <v>1.003286829045364</v>
+        <v>1.04517793583522</v>
       </c>
       <c r="F22">
-        <v>1.01114763235151</v>
+        <v>1.054504340443097</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044180712828976</v>
+        <v>1.037831058923695</v>
       </c>
       <c r="J22">
-        <v>1.01573413292453</v>
+        <v>1.043669976035891</v>
       </c>
       <c r="K22">
-        <v>1.026088930187155</v>
+        <v>1.04857242297051</v>
       </c>
       <c r="L22">
-        <v>1.018793453208743</v>
+        <v>1.048851929341111</v>
       </c>
       <c r="M22">
-        <v>1.026501440602746</v>
+        <v>1.058143333849168</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9864089047495979</v>
+        <v>1.037233516987274</v>
       </c>
       <c r="D23">
-        <v>1.012378311245278</v>
+        <v>1.045203659759371</v>
       </c>
       <c r="E23">
-        <v>1.00502366889973</v>
+        <v>1.045516375041026</v>
       </c>
       <c r="F23">
-        <v>1.013014206116702</v>
+        <v>1.054865723809981</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044861346330347</v>
+        <v>1.037915987914052</v>
       </c>
       <c r="J23">
-        <v>1.017082871929363</v>
+        <v>1.043924959800976</v>
       </c>
       <c r="K23">
-        <v>1.027401249075952</v>
+        <v>1.048809958779165</v>
       </c>
       <c r="L23">
-        <v>1.020185737714072</v>
+        <v>1.049121512581223</v>
       </c>
       <c r="M23">
-        <v>1.02802523830672</v>
+        <v>1.058436487755638</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9945451299794673</v>
+        <v>1.038756932429144</v>
       </c>
       <c r="D24">
-        <v>1.018720590471038</v>
+        <v>1.04640908278253</v>
       </c>
       <c r="E24">
-        <v>1.011705856455581</v>
+        <v>1.046849975999171</v>
       </c>
       <c r="F24">
-        <v>1.020192068520928</v>
+        <v>1.056289400852768</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047443277032455</v>
+        <v>1.038246291929704</v>
       </c>
       <c r="J24">
-        <v>1.022254789750796</v>
+        <v>1.044928000483431</v>
       </c>
       <c r="K24">
-        <v>1.032426738352259</v>
+        <v>1.049743217470171</v>
       </c>
       <c r="L24">
-        <v>1.025530475996556</v>
+        <v>1.050182606296702</v>
       </c>
       <c r="M24">
-        <v>1.033873630970157</v>
+        <v>1.059590153376303</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003584596126021</v>
+        <v>1.040525780019804</v>
       </c>
       <c r="D25">
-        <v>1.02577591905519</v>
+        <v>1.04780698913746</v>
       </c>
       <c r="E25">
-        <v>1.019163090949847</v>
+        <v>1.048399995321741</v>
       </c>
       <c r="F25">
-        <v>1.028195546338907</v>
+        <v>1.057943423874374</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050248617069572</v>
+        <v>1.038621177808478</v>
       </c>
       <c r="J25">
-        <v>1.027991923596311</v>
+        <v>1.046090282396493</v>
       </c>
       <c r="K25">
-        <v>1.037986853255741</v>
+        <v>1.050822255890437</v>
       </c>
       <c r="L25">
-        <v>1.031471033590313</v>
+        <v>1.051413445874499</v>
       </c>
       <c r="M25">
-        <v>1.040371380469272</v>
+        <v>1.060927951005201</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_195/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_195/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041937413968151</v>
+        <v>1.010502386569163</v>
       </c>
       <c r="D2">
-        <v>1.048921179698696</v>
+        <v>1.031179369823476</v>
       </c>
       <c r="E2">
-        <v>1.04963823194174</v>
+        <v>1.024894063693579</v>
       </c>
       <c r="F2">
-        <v>1.059264189852732</v>
+        <v>1.034340882093197</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038913383302503</v>
+        <v>1.052342506888785</v>
       </c>
       <c r="J2">
-        <v>1.047015931704176</v>
+        <v>1.032373447300555</v>
       </c>
       <c r="K2">
-        <v>1.051679677902946</v>
+        <v>1.042220766199589</v>
       </c>
       <c r="L2">
-        <v>1.05239473330045</v>
+        <v>1.036017145609808</v>
       </c>
       <c r="M2">
-        <v>1.061994168364726</v>
+        <v>1.045341659666028</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042962850435983</v>
+        <v>1.015370301686772</v>
       </c>
       <c r="D3">
-        <v>1.049729714893526</v>
+        <v>1.034982642952754</v>
       </c>
       <c r="E3">
-        <v>1.050538416031361</v>
+        <v>1.028939612885067</v>
       </c>
       <c r="F3">
-        <v>1.060224051541916</v>
+        <v>1.038675839358142</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039121596199218</v>
+        <v>1.053784121569648</v>
       </c>
       <c r="J3">
-        <v>1.047687223520756</v>
+        <v>1.035450549646772</v>
       </c>
       <c r="K3">
-        <v>1.0523003648002</v>
+        <v>1.045186656506043</v>
       </c>
       <c r="L3">
-        <v>1.053106976685382</v>
+        <v>1.039215126588845</v>
       </c>
       <c r="M3">
-        <v>1.062767856678568</v>
+        <v>1.048836662170574</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043626590776393</v>
+        <v>1.01845277152931</v>
       </c>
       <c r="D4">
-        <v>1.050252670218264</v>
+        <v>1.03739097526426</v>
       </c>
       <c r="E4">
-        <v>1.051121406435495</v>
+        <v>1.03150691178672</v>
       </c>
       <c r="F4">
-        <v>1.060845543388529</v>
+        <v>1.041425377517806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039254491063155</v>
+        <v>1.054681886433073</v>
       </c>
       <c r="J4">
-        <v>1.048121215516117</v>
+        <v>1.037395948658913</v>
       </c>
       <c r="K4">
-        <v>1.052701117784367</v>
+        <v>1.047058133966815</v>
       </c>
       <c r="L4">
-        <v>1.053567722648926</v>
+        <v>1.041239384686075</v>
       </c>
       <c r="M4">
-        <v>1.063268258465172</v>
+        <v>1.051048277294296</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043905678106922</v>
+        <v>1.01973310946962</v>
       </c>
       <c r="D5">
-        <v>1.050472466664375</v>
+        <v>1.038391245326513</v>
       </c>
       <c r="E5">
-        <v>1.051366617006588</v>
+        <v>1.032574556129568</v>
       </c>
       <c r="F5">
-        <v>1.061106912647685</v>
+        <v>1.042568469841885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039309920723711</v>
+        <v>1.055051105152385</v>
       </c>
       <c r="J5">
-        <v>1.048303574409506</v>
+        <v>1.038203211474949</v>
       </c>
       <c r="K5">
-        <v>1.052869384522391</v>
+        <v>1.047833837826688</v>
       </c>
       <c r="L5">
-        <v>1.053761390012927</v>
+        <v>1.042079954883686</v>
       </c>
       <c r="M5">
-        <v>1.063478572337808</v>
+        <v>1.051966487602665</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043952541069545</v>
+        <v>1.019947189938445</v>
       </c>
       <c r="D6">
-        <v>1.050509368258875</v>
+        <v>1.03855849158076</v>
       </c>
       <c r="E6">
-        <v>1.051407796031906</v>
+        <v>1.032753147291882</v>
       </c>
       <c r="F6">
-        <v>1.061150803184775</v>
+        <v>1.042759661782286</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039319201828029</v>
+        <v>1.055112623006688</v>
       </c>
       <c r="J6">
-        <v>1.048334187893977</v>
+        <v>1.03833814386235</v>
       </c>
       <c r="K6">
-        <v>1.052897624920074</v>
+        <v>1.047963442671925</v>
       </c>
       <c r="L6">
-        <v>1.053793905820107</v>
+        <v>1.042220488854932</v>
       </c>
       <c r="M6">
-        <v>1.06351388170975</v>
+        <v>1.052119992657299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043630319755534</v>
+        <v>1.018469939724735</v>
       </c>
       <c r="D7">
-        <v>1.050255607362556</v>
+        <v>1.037404388304385</v>
       </c>
       <c r="E7">
-        <v>1.051124682475314</v>
+        <v>1.031521222920971</v>
       </c>
       <c r="F7">
-        <v>1.060849035448919</v>
+        <v>1.041440701321918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039255233444016</v>
+        <v>1.054686851932753</v>
       </c>
       <c r="J7">
-        <v>1.048123652564347</v>
+        <v>1.037406776469995</v>
       </c>
       <c r="K7">
-        <v>1.05270336699825</v>
+        <v>1.047068541997597</v>
       </c>
       <c r="L7">
-        <v>1.053570310561504</v>
+        <v>1.041250656941198</v>
       </c>
       <c r="M7">
-        <v>1.063271068906791</v>
+        <v>1.051060591357611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042283920376825</v>
+        <v>1.012161849429121</v>
       </c>
       <c r="D8">
-        <v>1.049194473078919</v>
+        <v>1.032475856451518</v>
       </c>
       <c r="E8">
-        <v>1.049942346969431</v>
+        <v>1.026271985004089</v>
       </c>
       <c r="F8">
-        <v>1.059588496777506</v>
+        <v>1.035817674714571</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038984128982471</v>
+        <v>1.052837084303997</v>
       </c>
       <c r="J8">
-        <v>1.047242875920609</v>
+        <v>1.033423049593571</v>
       </c>
       <c r="K8">
-        <v>1.051889622195848</v>
+        <v>1.043233181571884</v>
       </c>
       <c r="L8">
-        <v>1.052635464326353</v>
+        <v>1.03710746704418</v>
       </c>
       <c r="M8">
-        <v>1.062255686288692</v>
+        <v>1.046533382559853</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039913053056871</v>
+        <v>1.00050119557311</v>
       </c>
       <c r="D9">
-        <v>1.047322972569441</v>
+        <v>1.023368468548574</v>
       </c>
       <c r="E9">
-        <v>1.047862876926247</v>
+        <v>1.016615431360852</v>
       </c>
       <c r="F9">
-        <v>1.057370351588349</v>
+        <v>1.025462134264713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038492395725084</v>
+        <v>1.04929992144234</v>
       </c>
       <c r="J9">
-        <v>1.045687964197981</v>
+        <v>1.026036267738204</v>
       </c>
       <c r="K9">
-        <v>1.050449050446938</v>
+        <v>1.036093453995722</v>
       </c>
       <c r="L9">
-        <v>1.050987235967661</v>
+        <v>1.029444566315259</v>
       </c>
       <c r="M9">
-        <v>1.060464757017261</v>
+        <v>1.038155185029822</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038333613503127</v>
+        <v>0.9923178339066139</v>
       </c>
       <c r="D10">
-        <v>1.046074259278775</v>
+        <v>1.016983510354534</v>
       </c>
       <c r="E10">
-        <v>1.046479277934817</v>
+        <v>1.009873804964404</v>
       </c>
       <c r="F10">
-        <v>1.055893718665013</v>
+        <v>1.018224678422992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038155184264178</v>
+        <v>1.046741425889664</v>
       </c>
       <c r="J10">
-        <v>1.044649464457852</v>
+        <v>1.020839596298247</v>
       </c>
       <c r="K10">
-        <v>1.049484245685973</v>
+        <v>1.0310527466504</v>
       </c>
       <c r="L10">
-        <v>1.049887848409166</v>
+        <v>1.024067044273449</v>
       </c>
       <c r="M10">
-        <v>1.059269713294593</v>
+        <v>1.03227249662756</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037649972640794</v>
+        <v>0.9886666443680606</v>
       </c>
       <c r="D11">
-        <v>1.04553331665542</v>
+        <v>1.014137323054357</v>
       </c>
       <c r="E11">
-        <v>1.045880819022422</v>
+        <v>1.006875105908081</v>
       </c>
       <c r="F11">
-        <v>1.055254836878152</v>
+        <v>1.015003537016762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038006947340259</v>
+        <v>1.045582685319371</v>
       </c>
       <c r="J11">
-        <v>1.044199341358543</v>
+        <v>1.018518624720081</v>
       </c>
       <c r="K11">
-        <v>1.049065434719821</v>
+        <v>1.028797465658755</v>
       </c>
       <c r="L11">
-        <v>1.049411675128484</v>
+        <v>1.02166852211679</v>
       </c>
       <c r="M11">
-        <v>1.058751997162736</v>
+        <v>1.029647948764542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037396078287037</v>
+        <v>0.9872932638971887</v>
       </c>
       <c r="D12">
-        <v>1.045332351104643</v>
+        <v>1.013067227281459</v>
       </c>
       <c r="E12">
-        <v>1.045658622996086</v>
+        <v>1.005748621635228</v>
       </c>
       <c r="F12">
-        <v>1.055017605194287</v>
+        <v>1.013793202523412</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037951552149934</v>
+        <v>1.045144319877805</v>
       </c>
       <c r="J12">
-        <v>1.044032079146789</v>
+        <v>1.0176453041117</v>
       </c>
       <c r="K12">
-        <v>1.048909713490599</v>
+        <v>1.027948289964816</v>
       </c>
       <c r="L12">
-        <v>1.049234784081913</v>
+        <v>1.020766509668289</v>
       </c>
       <c r="M12">
-        <v>1.058559656845395</v>
+        <v>1.028660833094314</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037450537660762</v>
+        <v>0.9875886520339862</v>
       </c>
       <c r="D13">
-        <v>1.045375460483694</v>
+        <v>1.013297361070655</v>
       </c>
       <c r="E13">
-        <v>1.045706280338424</v>
+        <v>1.00599083961226</v>
       </c>
       <c r="F13">
-        <v>1.05506848867729</v>
+        <v>1.014053463142338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037963449685944</v>
+        <v>1.045238716106713</v>
       </c>
       <c r="J13">
-        <v>1.044067960457493</v>
+        <v>1.017833151257811</v>
       </c>
       <c r="K13">
-        <v>1.048943123279866</v>
+        <v>1.028130969142458</v>
       </c>
       <c r="L13">
-        <v>1.049272728665671</v>
+        <v>1.02096050615576</v>
       </c>
       <c r="M13">
-        <v>1.058600916181685</v>
+        <v>1.028873137313274</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037628984830982</v>
+        <v>0.9885534764253581</v>
       </c>
       <c r="D14">
-        <v>1.045516705496688</v>
+        <v>1.014049135630392</v>
       </c>
       <c r="E14">
-        <v>1.045862450220375</v>
+        <v>1.00678225223795</v>
       </c>
       <c r="F14">
-        <v>1.055235225648229</v>
+        <v>1.014903777628372</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03800237515512</v>
+        <v>1.045546614110419</v>
       </c>
       <c r="J14">
-        <v>1.044185516764441</v>
+        <v>1.018446667891579</v>
       </c>
       <c r="K14">
-        <v>1.049052565936719</v>
+        <v>1.028727509738083</v>
       </c>
       <c r="L14">
-        <v>1.04939705364519</v>
+        <v>1.021594191287867</v>
       </c>
       <c r="M14">
-        <v>1.058736099012873</v>
+        <v>1.029566606997596</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037738937368544</v>
+        <v>0.9891456313231036</v>
       </c>
       <c r="D15">
-        <v>1.045603726550512</v>
+        <v>1.014510599554204</v>
       </c>
       <c r="E15">
-        <v>1.04595868468373</v>
+        <v>1.00726817219981</v>
       </c>
       <c r="F15">
-        <v>1.05533796808786</v>
+        <v>1.015425824693744</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03802631425663</v>
+        <v>1.045735256068237</v>
       </c>
       <c r="J15">
-        <v>1.044257938295536</v>
+        <v>1.018823172589253</v>
       </c>
       <c r="K15">
-        <v>1.049119976493422</v>
+        <v>1.029093521754331</v>
       </c>
       <c r="L15">
-        <v>1.049473651857536</v>
+        <v>1.021983137557574</v>
       </c>
       <c r="M15">
-        <v>1.058819384669622</v>
+        <v>1.02999223484653</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038378990136134</v>
+        <v>0.9925577994807622</v>
       </c>
       <c r="D16">
-        <v>1.046110154848391</v>
+        <v>1.017170631222877</v>
       </c>
       <c r="E16">
-        <v>1.046519009416635</v>
+        <v>1.01007108577081</v>
       </c>
       <c r="F16">
-        <v>1.0559361299618</v>
+        <v>1.018436553661816</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038164975481625</v>
+        <v>1.046817229350279</v>
       </c>
       <c r="J16">
-        <v>1.044679328297454</v>
+        <v>1.020992092231734</v>
       </c>
       <c r="K16">
-        <v>1.049512018849941</v>
+        <v>1.031200845871075</v>
       </c>
       <c r="L16">
-        <v>1.049919447750462</v>
+        <v>1.024224702955243</v>
       </c>
       <c r="M16">
-        <v>1.059304067112072</v>
+        <v>1.032444997987546</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038780549925383</v>
+        <v>0.9946686492385268</v>
       </c>
       <c r="D17">
-        <v>1.046427759921836</v>
+        <v>1.018816941322106</v>
       </c>
       <c r="E17">
-        <v>1.046870660540454</v>
+        <v>1.011807518611401</v>
       </c>
       <c r="F17">
-        <v>1.05631147823753</v>
+        <v>1.020301227984307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038251359397769</v>
+        <v>1.047482084077595</v>
       </c>
       <c r="J17">
-        <v>1.044943536121918</v>
+        <v>1.022333256366121</v>
       </c>
       <c r="K17">
-        <v>1.049757657599731</v>
+        <v>1.032502893883444</v>
       </c>
       <c r="L17">
-        <v>1.050199049049074</v>
+        <v>1.025611638851131</v>
       </c>
       <c r="M17">
-        <v>1.059608028020906</v>
+        <v>1.033962426147977</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03901479869363</v>
+        <v>0.9958895468702044</v>
       </c>
       <c r="D18">
-        <v>1.04661299022295</v>
+        <v>1.01976939346399</v>
       </c>
       <c r="E18">
-        <v>1.047075835215555</v>
+        <v>1.012812725871208</v>
       </c>
       <c r="F18">
-        <v>1.056530461689556</v>
+        <v>1.021380493458486</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038301531240401</v>
+        <v>1.0478649941769</v>
       </c>
       <c r="J18">
-        <v>1.045097601021328</v>
+        <v>1.023108746648013</v>
       </c>
       <c r="K18">
-        <v>1.049900833737051</v>
+        <v>1.033255389042544</v>
       </c>
       <c r="L18">
-        <v>1.050362123054215</v>
+        <v>1.026413900243169</v>
       </c>
       <c r="M18">
-        <v>1.059785298691234</v>
+        <v>1.03484010229406</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039094675829281</v>
+        <v>0.9963041185813332</v>
       </c>
       <c r="D19">
-        <v>1.046676144977944</v>
+        <v>1.02009284902873</v>
       </c>
       <c r="E19">
-        <v>1.047145805057792</v>
+        <v>1.01315420229518</v>
       </c>
       <c r="F19">
-        <v>1.056605137699445</v>
+        <v>1.021747097612821</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03831860215655</v>
+        <v>1.047994736536612</v>
       </c>
       <c r="J19">
-        <v>1.045150125851532</v>
+        <v>1.023372034175327</v>
       </c>
       <c r="K19">
-        <v>1.049949635983421</v>
+        <v>1.033510804786919</v>
       </c>
       <c r="L19">
-        <v>1.050417724902246</v>
+        <v>1.02668632845488</v>
       </c>
       <c r="M19">
-        <v>1.059845739216901</v>
+        <v>1.035138127933455</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038737463696626</v>
+        <v>0.9944432498709499</v>
       </c>
       <c r="D20">
-        <v>1.046393686313297</v>
+        <v>1.018641120525533</v>
       </c>
       <c r="E20">
-        <v>1.046832925229721</v>
+        <v>1.011622009246042</v>
       </c>
       <c r="F20">
-        <v>1.056271201829547</v>
+        <v>1.020102036791181</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038242113397695</v>
+        <v>1.047411259264033</v>
       </c>
       <c r="J20">
-        <v>1.04491519357219</v>
+        <v>1.022190068285486</v>
       </c>
       <c r="K20">
-        <v>1.049731313306717</v>
+        <v>1.032363920995086</v>
       </c>
       <c r="L20">
-        <v>1.05016905178508</v>
+        <v>1.025463532322525</v>
       </c>
       <c r="M20">
-        <v>1.059575418429773</v>
+        <v>1.033800391722008</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037576435472864</v>
+        <v>0.9882698418057336</v>
       </c>
       <c r="D21">
-        <v>1.04547511333003</v>
+        <v>1.01382811824797</v>
       </c>
       <c r="E21">
-        <v>1.045816459363561</v>
+        <v>1.006549555463449</v>
       </c>
       <c r="F21">
-        <v>1.055186123621198</v>
+        <v>1.014653770064755</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037990921774387</v>
+        <v>1.045456168108636</v>
       </c>
       <c r="J21">
-        <v>1.044150901192154</v>
+        <v>1.018266316775925</v>
       </c>
       <c r="K21">
-        <v>1.049020342108194</v>
+        <v>1.028552164514249</v>
       </c>
       <c r="L21">
-        <v>1.049360443559376</v>
+        <v>1.021407897907324</v>
       </c>
       <c r="M21">
-        <v>1.058696292067761</v>
+        <v>1.029362740667389</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036846684221822</v>
+        <v>0.9842885155001376</v>
       </c>
       <c r="D22">
-        <v>1.04489736581571</v>
+        <v>1.010727024041824</v>
       </c>
       <c r="E22">
-        <v>1.04517793583522</v>
+        <v>1.003286829045364</v>
       </c>
       <c r="F22">
-        <v>1.054504340443097</v>
+        <v>1.01114763235151</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037831058923695</v>
+        <v>1.044180712828976</v>
       </c>
       <c r="J22">
-        <v>1.043669976035891</v>
+        <v>1.01573413292453</v>
       </c>
       <c r="K22">
-        <v>1.04857242297051</v>
+        <v>1.026088930187155</v>
       </c>
       <c r="L22">
-        <v>1.048851929341111</v>
+        <v>1.018793453208743</v>
       </c>
       <c r="M22">
-        <v>1.058143333849168</v>
+        <v>1.026501440602746</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037233516987274</v>
+        <v>0.986408904749598</v>
       </c>
       <c r="D23">
-        <v>1.045203659759371</v>
+        <v>1.012378311245277</v>
       </c>
       <c r="E23">
-        <v>1.045516375041026</v>
+        <v>1.00502366889973</v>
       </c>
       <c r="F23">
-        <v>1.054865723809981</v>
+        <v>1.013014206116702</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037915987914052</v>
+        <v>1.044861346330347</v>
       </c>
       <c r="J23">
-        <v>1.043924959800976</v>
+        <v>1.017082871929363</v>
       </c>
       <c r="K23">
-        <v>1.048809958779165</v>
+        <v>1.027401249075951</v>
       </c>
       <c r="L23">
-        <v>1.049121512581223</v>
+        <v>1.020185737714072</v>
       </c>
       <c r="M23">
-        <v>1.058436487755638</v>
+        <v>1.02802523830672</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038756932429144</v>
+        <v>0.9945451299794666</v>
       </c>
       <c r="D24">
-        <v>1.04640908278253</v>
+        <v>1.018720590471038</v>
       </c>
       <c r="E24">
-        <v>1.046849975999171</v>
+        <v>1.011705856455581</v>
       </c>
       <c r="F24">
-        <v>1.056289400852768</v>
+        <v>1.020192068520927</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038246291929704</v>
+        <v>1.047443277032455</v>
       </c>
       <c r="J24">
-        <v>1.044928000483431</v>
+        <v>1.022254789750796</v>
       </c>
       <c r="K24">
-        <v>1.049743217470171</v>
+        <v>1.032426738352258</v>
       </c>
       <c r="L24">
-        <v>1.050182606296702</v>
+        <v>1.025530475996556</v>
       </c>
       <c r="M24">
-        <v>1.059590153376303</v>
+        <v>1.033873630970156</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040525780019804</v>
+        <v>1.003584596126021</v>
       </c>
       <c r="D25">
-        <v>1.04780698913746</v>
+        <v>1.025775919055189</v>
       </c>
       <c r="E25">
-        <v>1.048399995321741</v>
+        <v>1.019163090949847</v>
       </c>
       <c r="F25">
-        <v>1.057943423874374</v>
+        <v>1.028195546338906</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038621177808478</v>
+        <v>1.050248617069572</v>
       </c>
       <c r="J25">
-        <v>1.046090282396493</v>
+        <v>1.027991923596311</v>
       </c>
       <c r="K25">
-        <v>1.050822255890437</v>
+        <v>1.03798685325574</v>
       </c>
       <c r="L25">
-        <v>1.051413445874499</v>
+        <v>1.031471033590313</v>
       </c>
       <c r="M25">
-        <v>1.060927951005201</v>
+        <v>1.040371380469271</v>
       </c>
     </row>
   </sheetData>
